--- a/ОКС.xlsx
+++ b/ОКС.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Атрибуты реестра ОКС</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Форма собственности</t>
   </si>
   <si>
-    <t>Правообладатель</t>
-  </si>
-  <si>
     <t>Общая площадь</t>
   </si>
   <si>
@@ -145,6 +142,12 @@
   </si>
   <si>
     <t>Земельный участок на котором расположен ОКС (статус, кадастровый номер, адрес, площадь, разрешенное использование)</t>
+  </si>
+  <si>
+    <t>Дата возникновения права</t>
+  </si>
+  <si>
+    <t>Дата прекращения права</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C51"/>
+  <dimension ref="C5:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +560,7 @@
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
@@ -607,22 +610,22 @@
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
@@ -632,107 +635,107 @@
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
-        <v>26</v>
+      <c r="C32" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>28</v>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>36</v>
+      <c r="C45" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>37</v>
+      <c r="C46" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
@@ -742,7 +745,12 @@
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ОКС.xlsx
+++ b/ОКС.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="24675" windowHeight="11730"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="24675" windowHeight="11730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Объекты кап строит" sheetId="1" r:id="rId1"/>
     <sheet name="Земельные участки" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Вид стоимости" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Атрибуты реестра ОКС</t>
   </si>
@@ -148,6 +149,27 @@
   </si>
   <si>
     <t>Дата прекращения права</t>
+  </si>
+  <si>
+    <t>Балансовая стоимость</t>
+  </si>
+  <si>
+    <t>Остаточная стоимость</t>
+  </si>
+  <si>
+    <t>Действительная инвентаризационная стоимость</t>
+  </si>
+  <si>
+    <t>Восстановительная стоимость</t>
+  </si>
+  <si>
+    <t>Кадастровая стоимость</t>
+  </si>
+  <si>
+    <t>Рыночная стоимость</t>
+  </si>
+  <si>
+    <t>Вид стоимости</t>
   </si>
 </sst>
 </file>
@@ -190,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,14 +220,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -507,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C52"/>
+  <dimension ref="C1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,238 +557,238 @@
     <col min="3" max="3" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
+    <row r="1" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>4</v>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>14</v>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>20</v>
+      <c r="C25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>42</v>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>43</v>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
-        <v>25</v>
+      <c r="C33" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
-        <v>26</v>
+      <c r="C34" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>29</v>
+      <c r="C37" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
-        <v>33</v>
+      <c r="C41" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>1</v>
+      <c r="C42" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
-        <v>35</v>
+      <c r="C46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
         <v>41</v>
       </c>
     </row>
@@ -775,6 +814,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ОКС.xlsx
+++ b/ОКС.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="24675" windowHeight="11730" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="24675" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Объекты кап строит" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Атрибуты реестра ОКС</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Дата установления значения</t>
   </si>
   <si>
-    <t>Код ОКОФ</t>
-  </si>
-  <si>
     <t>Амортизационная группа</t>
   </si>
   <si>
@@ -170,6 +167,57 @@
   </si>
   <si>
     <t>Вид стоимости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код ОКОФ </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Справочник</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>кодов ОКОФ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (только группы 11… Здания (кроме жилых), 12… Сооружения, 13… Жилища)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -546,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:C48"/>
+  <dimension ref="C1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,12 +722,12 @@
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
@@ -712,84 +760,87 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -827,37 +878,37 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
